--- a/api/src/data/classements_EFREI.xlsx
+++ b/api/src/data/classements_EFREI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <x:si>
     <x:t>Poule</x:t>
   </x:si>
@@ -73,111 +73,6 @@
   </x:si>
   <x:si>
     <x:t>ExAequo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BBME2 BAS B - BASKET BALL (NIVEAU 2 : GRANDES ECOLES - M)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EPF CACHAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>272</x:t>
-  </x:si>
-  <x:si>
-    <x:t>209</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ECOLE POLYTECHNIQUE (2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>259</x:t>
-  </x:si>
-  <x:si>
-    <x:t>243</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EFREI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>225</x:t>
-  </x:si>
-  <x:si>
-    <x:t>185</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SCIENCES PO ST GERMAIN EN LAYE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>177</x:t>
-  </x:si>
-  <x:si>
-    <x:t>249</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ECE PARIS (2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>212</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ESPCI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -554,17 +449,14 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:S12"/>
+  <x:dimension ref="A1:S6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="20" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="16.010625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="12.710625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="16.010625" style="1" customWidth="1"/>
-    <x:col min="4" max="19" width="12.710625" style="1" customWidth="1"/>
+    <x:col min="1" max="19" width="12.710625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -626,365 +518,11 @@
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:19" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A2" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E2" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H2" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I2" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J2" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="K2" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="L2" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="M2" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="N2" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="O2" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="P2" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="Q2" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="R2" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="S2" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:19" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A3" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="H3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I3" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="J3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="K3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="L3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="M3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="N3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="O3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="P3" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="Q3" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="R3" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="S3" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:19" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A4" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G4" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="H4" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I4" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J4" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="K4" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="L4" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="M4" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="N4" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="O4" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="P4" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="Q4" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="R4" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="S4" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:19" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A5" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H5" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I5" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="J5" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="K5" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="L5" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="M5" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="N5" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="O5" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="P5" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="Q5" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="R5" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="S5" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:19" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A6" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D6" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E6" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F6" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G6" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H6" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I6" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="J6" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="K6" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="L6" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="M6" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="N6" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="O6" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="P6" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="Q6" s="1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="R6" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="S6" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:19" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A7" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D7" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E7" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F7" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G7" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H7" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I7" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J7" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="K7" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="L7" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="M7" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="N7" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="O7" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="P7" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="Q7" s="1" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="R7" s="1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="S7" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:19" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="9" spans="1:19" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="10" spans="1:19" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="11" spans="1:19" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="12" spans="1:19" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="2" spans="1:19" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="3" spans="1:19" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="4" spans="1:19" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="5" spans="1:19" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="6" spans="1:19" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:autoFilter ref="A1:S1"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
